--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_19_13.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_19_13.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>60796.75029263232</v>
+        <v>60796.75029263226</v>
       </c>
     </row>
     <row r="7">
@@ -22568,7 +22568,7 @@
         <v>160.9084221286138</v>
       </c>
       <c r="J2" t="n">
-        <v>71.92258334679383</v>
+        <v>71.92258334679384</v>
       </c>
       <c r="K2" t="n">
         <v>56.54227989916996</v>
@@ -22577,13 +22577,13 @@
         <v>32.8711910981084</v>
       </c>
       <c r="M2" t="n">
-        <v>4.586202945486093</v>
+        <v>4.586202945486122</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>13.46996085601003</v>
+        <v>13.46996085601006</v>
       </c>
       <c r="P2" t="n">
         <v>46.34579576917247</v>
@@ -22644,10 +22644,10 @@
         <v>105.5916109993956</v>
       </c>
       <c r="I3" t="n">
-        <v>75.83750674330533</v>
+        <v>75.83750674330534</v>
       </c>
       <c r="J3" t="n">
-        <v>61.84452414151257</v>
+        <v>61.84452414151258</v>
       </c>
       <c r="K3" t="n">
         <v>26.75787480980772</v>
@@ -22726,7 +22726,7 @@
         <v>138.1067275372333</v>
       </c>
       <c r="J4" t="n">
-        <v>86.2208375662932</v>
+        <v>86.22083756629321</v>
       </c>
       <c r="K4" t="n">
         <v>62.00809140979796</v>
@@ -22741,10 +22741,10 @@
         <v>39.43061707215854</v>
       </c>
       <c r="O4" t="n">
-        <v>56.93882853040725</v>
+        <v>56.93882853040726</v>
       </c>
       <c r="P4" t="n">
-        <v>67.97552059180406</v>
+        <v>67.97552059180407</v>
       </c>
       <c r="Q4" t="n">
         <v>103.2119976362414</v>
@@ -22805,7 +22805,7 @@
         <v>160.9084221286138</v>
       </c>
       <c r="J5" t="n">
-        <v>71.92258334679383</v>
+        <v>71.92258334679384</v>
       </c>
       <c r="K5" t="n">
         <v>56.54227989916996</v>
@@ -22814,13 +22814,13 @@
         <v>32.8711910981084</v>
       </c>
       <c r="M5" t="n">
-        <v>4.586202945486093</v>
+        <v>4.586202945486122</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>13.46996085601003</v>
+        <v>13.46996085601006</v>
       </c>
       <c r="P5" t="n">
         <v>46.34579576917247</v>
@@ -22881,10 +22881,10 @@
         <v>105.5916109993956</v>
       </c>
       <c r="I6" t="n">
-        <v>75.83750674330533</v>
+        <v>75.83750674330534</v>
       </c>
       <c r="J6" t="n">
-        <v>61.84452414151257</v>
+        <v>61.84452414151258</v>
       </c>
       <c r="K6" t="n">
         <v>26.75787480980772</v>
@@ -22963,7 +22963,7 @@
         <v>138.1067275372333</v>
       </c>
       <c r="J7" t="n">
-        <v>86.2208375662932</v>
+        <v>86.22083756629321</v>
       </c>
       <c r="K7" t="n">
         <v>62.00809140979796</v>
@@ -22978,10 +22978,10 @@
         <v>39.43061707215854</v>
       </c>
       <c r="O7" t="n">
-        <v>56.93882853040725</v>
+        <v>56.93882853040726</v>
       </c>
       <c r="P7" t="n">
-        <v>67.97552059180406</v>
+        <v>67.97552059180407</v>
       </c>
       <c r="Q7" t="n">
         <v>103.2119976362414</v>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>61968.76988284416</v>
+        <v>61968.76988284417</v>
       </c>
       <c r="C2" t="n">
         <v>61968.76988284417</v>
@@ -26320,10 +26320,10 @@
         <v>62931.11298402938</v>
       </c>
       <c r="E2" t="n">
-        <v>62951.03685317954</v>
+        <v>62951.03685317953</v>
       </c>
       <c r="F2" t="n">
-        <v>62951.03685317954</v>
+        <v>62951.03685317953</v>
       </c>
       <c r="G2" t="n">
         <v>62951.03685317954</v>
@@ -26338,7 +26338,7 @@
         <v>62951.03685317954</v>
       </c>
       <c r="K2" t="n">
-        <v>62951.03685317954</v>
+        <v>62951.03685317953</v>
       </c>
       <c r="L2" t="n">
         <v>62951.03685317954</v>
@@ -26350,7 +26350,7 @@
         <v>62951.03685317954</v>
       </c>
       <c r="O2" t="n">
-        <v>62951.03685317953</v>
+        <v>62951.03685317954</v>
       </c>
       <c r="P2" t="n">
         <v>62951.03685317954</v>
@@ -26369,7 +26369,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>5446.975876289165</v>
+        <v>5446.975876289214</v>
       </c>
       <c r="E3" t="n">
         <v>109.902156572954</v>
@@ -26519,19 +26519,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-286814.8165009675</v>
+        <v>-286814.8165009674</v>
       </c>
       <c r="C6" t="n">
         <v>21369.06731958684</v>
       </c>
       <c r="D6" t="n">
-        <v>16745.78189038907</v>
+        <v>16745.78189038901</v>
       </c>
       <c r="E6" t="n">
-        <v>55727.3973308028</v>
+        <v>55727.39733080279</v>
       </c>
       <c r="F6" t="n">
-        <v>55837.29948737576</v>
+        <v>55837.29948737575</v>
       </c>
       <c r="G6" t="n">
         <v>55837.29948737576</v>
@@ -26546,7 +26546,7 @@
         <v>55837.29948737576</v>
       </c>
       <c r="K6" t="n">
-        <v>55837.29948737576</v>
+        <v>55837.29948737575</v>
       </c>
       <c r="L6" t="n">
         <v>55837.29948737576</v>
@@ -26558,7 +26558,7 @@
         <v>55837.29948737576</v>
       </c>
       <c r="O6" t="n">
-        <v>55837.29948737575</v>
+        <v>55837.29948737576</v>
       </c>
       <c r="P6" t="n">
         <v>55837.29948737576</v>
@@ -26963,7 +26963,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>6.360213490542151</v>
+        <v>6.360213490542208</v>
       </c>
       <c r="E3" t="n">
         <v>0.1367958005794776</v>
@@ -31048,7 +31048,7 @@
         <v>49.56746744179212</v>
       </c>
       <c r="J2" t="n">
-        <v>109.1233211798925</v>
+        <v>109.1233211798924</v>
       </c>
       <c r="K2" t="n">
         <v>163.5475711458106</v>
@@ -31072,13 +31072,13 @@
         <v>138.8425873731879</v>
       </c>
       <c r="R2" t="n">
-        <v>80.76369695066401</v>
+        <v>80.763696950664</v>
       </c>
       <c r="S2" t="n">
-        <v>29.29819504130311</v>
+        <v>29.2981950413031</v>
       </c>
       <c r="T2" t="n">
-        <v>5.62821058884495</v>
+        <v>5.628210588844949</v>
       </c>
       <c r="U2" t="n">
         <v>0.1028570752958528</v>
@@ -31127,7 +31127,7 @@
         <v>23.68487325669467</v>
       </c>
       <c r="J3" t="n">
-        <v>64.99310252515413</v>
+        <v>64.99310252515411</v>
       </c>
       <c r="K3" t="n">
         <v>111.0835641645513</v>
@@ -31157,7 +31157,7 @@
         <v>12.77776283338877</v>
       </c>
       <c r="T3" t="n">
-        <v>2.772789620751897</v>
+        <v>2.772789620751896</v>
       </c>
       <c r="U3" t="n">
         <v>0.04525771959877963</v>
@@ -31200,13 +31200,13 @@
         <v>0.5767267874554866</v>
       </c>
       <c r="H4" t="n">
-        <v>5.127625437558785</v>
+        <v>5.127625437558784</v>
       </c>
       <c r="I4" t="n">
         <v>17.343747390025</v>
       </c>
       <c r="J4" t="n">
-        <v>40.77458387310291</v>
+        <v>40.7745838731029</v>
       </c>
       <c r="K4" t="n">
         <v>67.00516676073742</v>
@@ -31221,10 +31221,10 @@
         <v>88.25492739307465</v>
       </c>
       <c r="O4" t="n">
-        <v>81.51770992143554</v>
+        <v>81.51770992143553</v>
       </c>
       <c r="P4" t="n">
-        <v>69.75248345734356</v>
+        <v>69.75248345734354</v>
       </c>
       <c r="Q4" t="n">
         <v>48.29300399320443</v>
@@ -31285,7 +31285,7 @@
         <v>49.56746744179212</v>
       </c>
       <c r="J5" t="n">
-        <v>109.1233211798925</v>
+        <v>109.1233211798924</v>
       </c>
       <c r="K5" t="n">
         <v>163.5475711458106</v>
@@ -31309,13 +31309,13 @@
         <v>138.8425873731879</v>
       </c>
       <c r="R5" t="n">
-        <v>80.76369695066401</v>
+        <v>80.763696950664</v>
       </c>
       <c r="S5" t="n">
-        <v>29.29819504130311</v>
+        <v>29.2981950413031</v>
       </c>
       <c r="T5" t="n">
-        <v>5.62821058884495</v>
+        <v>5.628210588844949</v>
       </c>
       <c r="U5" t="n">
         <v>0.1028570752958528</v>
@@ -31364,7 +31364,7 @@
         <v>23.68487325669467</v>
       </c>
       <c r="J6" t="n">
-        <v>64.99310252515413</v>
+        <v>64.99310252515411</v>
       </c>
       <c r="K6" t="n">
         <v>111.0835641645513</v>
@@ -31394,7 +31394,7 @@
         <v>12.77776283338877</v>
       </c>
       <c r="T6" t="n">
-        <v>2.772789620751897</v>
+        <v>2.772789620751896</v>
       </c>
       <c r="U6" t="n">
         <v>0.04525771959877963</v>
@@ -31437,13 +31437,13 @@
         <v>0.5767267874554866</v>
       </c>
       <c r="H7" t="n">
-        <v>5.127625437558785</v>
+        <v>5.127625437558784</v>
       </c>
       <c r="I7" t="n">
         <v>17.343747390025</v>
       </c>
       <c r="J7" t="n">
-        <v>40.77458387310291</v>
+        <v>40.7745838731029</v>
       </c>
       <c r="K7" t="n">
         <v>67.00516676073742</v>
@@ -31458,10 +31458,10 @@
         <v>88.25492739307465</v>
       </c>
       <c r="O7" t="n">
-        <v>81.51770992143554</v>
+        <v>81.51770992143553</v>
       </c>
       <c r="P7" t="n">
-        <v>69.75248345734356</v>
+        <v>69.75248345734354</v>
       </c>
       <c r="Q7" t="n">
         <v>48.29300399320443</v>
